--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,43 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Program\Progekt\Exel-pdf\PDFToExcel(Example) (2)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+  <si>
+    <t>M6392</t>
+  </si>
+  <si>
+    <t>ASCOT NERO-SENZA ETICHETTA</t>
+  </si>
+  <si>
+    <t>34/44</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>177,00</t>
+  </si>
+  <si>
+    <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+  </si>
+  <si>
+    <t>Country of origin: ITALY</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>. S  :</t>
+  </si>
+  <si>
+    <t>6  4 039998</t>
+  </si>
+  <si>
+    <t>LADIES BOOTS</t>
+  </si>
+  <si>
+    <t>M6393</t>
+  </si>
+  <si>
+    <t>ASCOT NERO</t>
+  </si>
+  <si>
+    <t>64039118</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>199,00</t>
+  </si>
+  <si>
+    <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+  </si>
+  <si>
+    <t>6  4 039118</t>
+  </si>
+  <si>
+    <t>M6550</t>
+  </si>
+  <si>
+    <t>NAPPA/RANCH NERO</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>209,00</t>
+  </si>
+  <si>
+    <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
+  </si>
+  <si>
+    <t>M6553</t>
+  </si>
+  <si>
+    <t>TEBE MORO+M.NERO</t>
+  </si>
+  <si>
+    <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+  </si>
+  <si>
+    <t>M6560</t>
+  </si>
+  <si>
+    <t>GOTEBORG NERO</t>
+  </si>
+  <si>
+    <t>191,00</t>
+  </si>
+  <si>
+    <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+  </si>
+  <si>
+    <t>M6562</t>
+  </si>
+  <si>
+    <t>GAUCHO NERO</t>
+  </si>
+  <si>
+    <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+  </si>
+  <si>
+    <t>M6563</t>
+  </si>
+  <si>
+    <t>GAUCHO/NYAP NERO</t>
+  </si>
+  <si>
+    <t>211,00</t>
+  </si>
+  <si>
+    <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+  </si>
+  <si>
+    <t>TEBE CUOIO/NYAP NERO</t>
+  </si>
+  <si>
+    <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+  </si>
+  <si>
+    <t>M6577</t>
+  </si>
+  <si>
+    <t>BUTTERFLY NERO</t>
+  </si>
+  <si>
+    <t>225,00</t>
+  </si>
+  <si>
+    <t>S E G U E</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +182,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,187 +489,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>M6392</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SOLE: 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="E1">
+        <v>64039998</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>M6393</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SOLE: 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M6550</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SOLE: 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M6553</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SOLE: 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>M6560</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SOLE: 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>M6562</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SOLE: 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>M6563</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SOLE: 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>M6563</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SOLE: 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>M6577</t>
-        </is>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
